--- a/data/closure.xlsx
+++ b/data/closure.xlsx
@@ -501,22 +501,22 @@
         <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>5344</v>
+        <v>5386</v>
       </c>
       <c r="G2" t="n">
-        <v>1128</v>
+        <v>1092</v>
       </c>
       <c r="H2" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01312335958005249</v>
+        <v>0.01355013550135501</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0250208507089241</v>
+        <v>0.02566295979469632</v>
       </c>
     </row>
     <row r="3">
@@ -539,25 +539,25 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>8952</v>
+        <v>8987</v>
       </c>
       <c r="G3" t="n">
-        <v>1896</v>
+        <v>1863</v>
       </c>
       <c r="H3" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007329842931937173</v>
+        <v>0.007987220447284345</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01424211597151577</v>
+        <v>0.0154639175257732</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>12681</v>
+        <v>12661</v>
       </c>
       <c r="G4" t="n">
-        <v>2527</v>
+        <v>2550</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006291781360597719</v>
+        <v>0.007009345794392523</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01231242785686803</v>
+        <v>0.01368821292775665</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>18209</v>
+        <v>18131</v>
       </c>
       <c r="G5" t="n">
-        <v>3559</v>
+        <v>3642</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003918275958578225</v>
+        <v>0.004918032786885246</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007715624138881235</v>
+        <v>0.00967221923696937</v>
       </c>
     </row>
     <row r="6">
@@ -662,25 +662,25 @@
         <v>1.3</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>23885</v>
+        <v>23462</v>
       </c>
       <c r="G6" t="n">
-        <v>4443</v>
+        <v>4868</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002917414721723519</v>
+        <v>0.003683995088006549</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00576241134751773</v>
+        <v>0.007275666936135812</v>
       </c>
     </row>
     <row r="7">
@@ -706,22 +706,22 @@
         <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>27902</v>
+        <v>28296</v>
       </c>
       <c r="G7" t="n">
-        <v>4802</v>
+        <v>4410</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002492729538845035</v>
+        <v>0.002713704206241519</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004928131416837783</v>
+        <v>0.005352363960749331</v>
       </c>
     </row>
     <row r="8">
@@ -747,22 +747,22 @@
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>31500</v>
+        <v>31995</v>
       </c>
       <c r="G8" t="n">
-        <v>5572</v>
+        <v>5080</v>
       </c>
       <c r="H8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002148997134670487</v>
+        <v>0.002356637863315004</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00425531914893617</v>
+        <v>0.004656577415599534</v>
       </c>
     </row>
     <row r="9">
@@ -785,25 +785,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>37138</v>
+        <v>37713</v>
       </c>
       <c r="G9" t="n">
-        <v>6494</v>
+        <v>5924</v>
       </c>
       <c r="H9" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001844451275745466</v>
+        <v>0.002189658076469597</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00365742151782993</v>
+        <v>0.004334055675945991</v>
       </c>
     </row>
     <row r="10">
@@ -826,25 +826,25 @@
         <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6447</v>
+        <v>6458</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04819277108433735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -867,25 +867,25 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10834</v>
+        <v>10837</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I11" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -908,25 +908,25 @@
         <v>0.7</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>15196</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -949,25 +949,25 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>21753</v>
+        <v>21762</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0547945205479452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -990,25 +990,25 @@
         <v>1.3</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>28316</v>
+        <v>28318</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1031,25 +1031,25 @@
         <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>32693</v>
+        <v>32694</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05797101449275362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1072,25 +1072,25 @@
         <v>1.7</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>37060</v>
+        <v>37063</v>
       </c>
       <c r="G16" t="n">
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1113,25 +1113,25 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>43619</v>
+        <v>43625</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05633802816901409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1154,25 +1154,25 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F18" t="n">
-        <v>903</v>
+        <v>1024</v>
       </c>
       <c r="G18" t="n">
-        <v>5569</v>
+        <v>5454</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009427250088936322</v>
+        <v>0.01052249637155298</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01866854526241634</v>
+        <v>0.02081090778614998</v>
       </c>
     </row>
     <row r="19">
@@ -1195,25 +1195,25 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F19" t="n">
-        <v>1495</v>
+        <v>1622</v>
       </c>
       <c r="G19" t="n">
-        <v>9353</v>
+        <v>9228</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005634701254518392</v>
+        <v>0.00624596166271807</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01120270555907842</v>
+        <v>0.01240907145913564</v>
       </c>
     </row>
     <row r="20">
@@ -1236,25 +1236,25 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F20" t="n">
-        <v>2215</v>
+        <v>2267</v>
       </c>
       <c r="G20" t="n">
-        <v>12993</v>
+        <v>12944</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004062547907404569</v>
+        <v>0.00438427813245135</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00809036788276599</v>
+        <v>0.008726938681772947</v>
       </c>
     </row>
     <row r="21">
@@ -1277,25 +1277,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F21" t="n">
-        <v>3386</v>
+        <v>3362</v>
       </c>
       <c r="G21" t="n">
-        <v>18382</v>
+        <v>18411</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002874966097097911</v>
+        <v>0.00308641975308642</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005732518522524471</v>
+        <v>0.006152185644900162</v>
       </c>
     </row>
     <row r="22">
@@ -1318,25 +1318,25 @@
         <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F22" t="n">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="G22" t="n">
-        <v>24100</v>
+        <v>24101</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002194344387860721</v>
+        <v>0.002359466843281728</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004378536907761577</v>
+        <v>0.004706853839801817</v>
       </c>
     </row>
     <row r="23">
@@ -1359,25 +1359,25 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
-        <v>5133</v>
+        <v>4931</v>
       </c>
       <c r="G23" t="n">
-        <v>27571</v>
+        <v>27775</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001918621488560672</v>
+        <v>0.002048002299511354</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003829479768786127</v>
+        <v>0.004086900408690041</v>
       </c>
     </row>
     <row r="24">
@@ -1400,25 +1400,25 @@
         <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F24" t="n">
-        <v>5915</v>
+        <v>5446</v>
       </c>
       <c r="G24" t="n">
-        <v>31157</v>
+        <v>31629</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001666186036079336</v>
+        <v>0.001798901723158493</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003326403326403327</v>
+        <v>0.003590777371802948</v>
       </c>
     </row>
     <row r="25">
@@ -1441,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F25" t="n">
-        <v>6627</v>
+        <v>6337</v>
       </c>
       <c r="G25" t="n">
-        <v>37005</v>
+        <v>37300</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001376295336787565</v>
+        <v>0.001525818454372674</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9107142857142857</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00274843716318172</v>
+        <v>0.003046580614126513</v>
       </c>
     </row>
     <row r="26">
@@ -1482,25 +1482,25 @@
         <v>0.3</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F26" t="n">
-        <v>1403</v>
+        <v>1356</v>
       </c>
       <c r="G26" t="n">
-        <v>5069</v>
+        <v>5122</v>
       </c>
       <c r="H26" t="n">
         <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009574052364204768</v>
+        <v>0.01062391346339579</v>
       </c>
       <c r="J26" t="n">
-        <v>0.875</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01894085813683804</v>
+        <v>0.02099637335369345</v>
       </c>
     </row>
     <row r="27">
@@ -1523,25 +1523,25 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F27" t="n">
-        <v>2852</v>
+        <v>2790</v>
       </c>
       <c r="G27" t="n">
-        <v>7996</v>
+        <v>8060</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>0.005843590699987567</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8392857142857143</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01160637115693296</v>
+        <v>0.01272326890139467</v>
       </c>
     </row>
     <row r="28">
@@ -1564,25 +1564,25 @@
         <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F28" t="n">
-        <v>4744</v>
+        <v>4708</v>
       </c>
       <c r="G28" t="n">
-        <v>10464</v>
+        <v>10503</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>0.004376784015223597</v>
+        <v>0.004832291074474133</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="K28" t="n">
-        <v>0.008707173954192694</v>
+        <v>0.009608138658628486</v>
       </c>
     </row>
     <row r="29">
@@ -1605,25 +1605,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F29" t="n">
-        <v>8241</v>
+        <v>8255</v>
       </c>
       <c r="G29" t="n">
-        <v>13527</v>
+        <v>13518</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
-        <v>0.003168754605747974</v>
+        <v>0.003391329991153052</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7678571428571429</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="K29" t="n">
-        <v>0.006311463378834581</v>
+        <v>0.006751798033171877</v>
       </c>
     </row>
     <row r="30">
@@ -1646,25 +1646,25 @@
         <v>1.3</v>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F30" t="n">
-        <v>13179</v>
+        <v>12919</v>
       </c>
       <c r="G30" t="n">
-        <v>15149</v>
+        <v>15411</v>
       </c>
       <c r="H30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002502139988147758</v>
+        <v>0.002653378203468807</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004985895164993768</v>
+        <v>0.005285548536805466</v>
       </c>
     </row>
     <row r="31">
@@ -1687,25 +1687,25 @@
         <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>16626</v>
+        <v>16420</v>
       </c>
       <c r="G31" t="n">
-        <v>16078</v>
+        <v>16286</v>
       </c>
       <c r="H31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002172159126171414</v>
+        <v>0.002450079627587897</v>
       </c>
       <c r="J31" t="n">
-        <v>0.625</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00432927206382584</v>
+        <v>0.00488162069807176</v>
       </c>
     </row>
     <row r="32">
@@ -1728,25 +1728,25 @@
         <v>1.7</v>
       </c>
       <c r="E32" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>22849</v>
+        <v>22350</v>
       </c>
       <c r="G32" t="n">
-        <v>14223</v>
+        <v>14725</v>
       </c>
       <c r="H32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001684565171615077</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.003355939313430749</v>
+        <v>0.004184100418410041</v>
       </c>
     </row>
     <row r="33">
@@ -1769,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" t="n">
-        <v>31808</v>
+        <v>31048</v>
       </c>
       <c r="G33" t="n">
-        <v>11824</v>
+        <v>12589</v>
       </c>
       <c r="H33" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001772899957788096</v>
+        <v>0.001744508762191737</v>
       </c>
       <c r="J33" t="n">
-        <v>0.375</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003529115200403327</v>
+        <v>0.003471948236408112</v>
       </c>
     </row>
     <row r="34">
@@ -1810,25 +1810,25 @@
         <v>0.3</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>5416</v>
+        <v>5526</v>
       </c>
       <c r="G34" t="n">
-        <v>1056</v>
+        <v>952</v>
       </c>
       <c r="H34" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01216089803554724</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02311111111111111</v>
+        <v>0.03106796116504854</v>
       </c>
     </row>
     <row r="35">
@@ -1851,25 +1851,25 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>9224</v>
+        <v>9430</v>
       </c>
       <c r="G35" t="n">
-        <v>1624</v>
+        <v>1420</v>
       </c>
       <c r="H35" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00794135613927917</v>
+        <v>0.008379888268156424</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01535735380980508</v>
+        <v>0.01606425702811245</v>
       </c>
     </row>
     <row r="36">
@@ -1895,22 +1895,22 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>12721</v>
+        <v>13131</v>
       </c>
       <c r="G36" t="n">
-        <v>2487</v>
+        <v>2080</v>
       </c>
       <c r="H36" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004403522818254604</v>
+        <v>0.005260640841702535</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="K36" t="n">
-        <v>0.008613938919342208</v>
+        <v>0.01021830004644682</v>
       </c>
     </row>
     <row r="37">
@@ -1936,22 +1936,22 @@
         <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>18576</v>
+        <v>18577</v>
       </c>
       <c r="G37" t="n">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="H37" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I37" t="n">
-        <v>0.004056162246489859</v>
+        <v>0.00405110626363353</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="K37" t="n">
-        <v>0.007973014412756822</v>
+        <v>0.007948639559767655</v>
       </c>
     </row>
     <row r="38">
@@ -1974,25 +1974,25 @@
         <v>1.3</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>24382</v>
+        <v>24702</v>
       </c>
       <c r="G38" t="n">
-        <v>3946</v>
+        <v>3628</v>
       </c>
       <c r="H38" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002275600505689001</v>
+        <v>0.003296703296703297</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004487658937920718</v>
+        <v>0.006482982171799027</v>
       </c>
     </row>
     <row r="39">
@@ -2015,25 +2015,25 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>28643</v>
+        <v>27314</v>
       </c>
       <c r="G39" t="n">
-        <v>4061</v>
+        <v>5392</v>
       </c>
       <c r="H39" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I39" t="n">
-        <v>0.002946231279155414</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00581254541051102</v>
+        <v>0.005850091407678245</v>
       </c>
     </row>
     <row r="40">
@@ -2056,25 +2056,25 @@
         <v>1.7</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>32570</v>
+        <v>32409</v>
       </c>
       <c r="G40" t="n">
-        <v>4502</v>
+        <v>4666</v>
       </c>
       <c r="H40" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00199512303258701</v>
+        <v>0.002565198802907225</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003941318151959711</v>
+        <v>0.005063291139240506</v>
       </c>
     </row>
     <row r="41">
@@ -2097,25 +2097,25 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>38167</v>
+        <v>37745</v>
       </c>
       <c r="G41" t="n">
-        <v>5465</v>
+        <v>5892</v>
       </c>
       <c r="H41" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I41" t="n">
-        <v>0.002008765522279036</v>
+        <v>0.002370470707754826</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003976861894432394</v>
+        <v>0.004691689008042895</v>
       </c>
     </row>
     <row r="42">
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6472</v>
+        <v>6478</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>10848</v>
+        <v>10850</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>15208</v>
+        <v>15211</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>21768</v>
+        <v>21773</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28328</v>
+        <v>28330</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>32704</v>
+        <v>32706</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>37072</v>
+        <v>37075</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>43632</v>
+        <v>43637</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2466,25 +2466,25 @@
         <v>0.3</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3943</v>
+        <v>3998</v>
       </c>
       <c r="G50" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06896551724137931</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2507,25 +2507,25 @@
         <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>6986</v>
+        <v>7012</v>
       </c>
       <c r="G51" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I51" t="n">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04210526315789474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2548,25 +2548,25 @@
         <v>0.7</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>10020</v>
+        <v>10011</v>
       </c>
       <c r="G52" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H52" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03278688524590164</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04210526315789474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2589,25 +2589,25 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>14658</v>
+        <v>14592</v>
       </c>
       <c r="G53" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H53" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04444444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2630,25 +2630,25 @@
         <v>1.3</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>19118</v>
+        <v>19062</v>
       </c>
       <c r="G54" t="n">
         <v>51</v>
       </c>
       <c r="H54" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03773584905660377</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04444444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2671,25 +2671,25 @@
         <v>1.5</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>22123</v>
+        <v>22084</v>
       </c>
       <c r="G55" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03773584905660377</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.04444444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2712,25 +2712,25 @@
         <v>1.7</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>24994</v>
+        <v>24975</v>
       </c>
       <c r="G56" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H56" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04395604395604396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2753,25 +2753,25 @@
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>29488</v>
+        <v>29414</v>
       </c>
       <c r="G57" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H57" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0449438202247191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>4757</v>
+        <v>4778</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8218</v>
+        <v>8243</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11674</v>
+        <v>11676</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>16838</v>
+        <v>16845</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>21957</v>
+        <v>21887</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3002,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>25334</v>
+        <v>25331</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>28617</v>
+        <v>28575</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>33630</v>
+        <v>33580</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0.3</v>
       </c>
       <c r="E66" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F66" t="n">
-        <v>3342</v>
+        <v>3385</v>
       </c>
       <c r="G66" t="n">
-        <v>3130</v>
+        <v>3093</v>
       </c>
       <c r="H66" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0101201771030993</v>
+        <v>0.01150527325023969</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01988812927284027</v>
+        <v>0.02256345973049201</v>
       </c>
     </row>
     <row r="67">
@@ -3163,25 +3163,25 @@
         <v>0.5</v>
       </c>
       <c r="E67" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F67" t="n">
-        <v>5618</v>
+        <v>5720</v>
       </c>
       <c r="G67" t="n">
-        <v>5230</v>
+        <v>5130</v>
       </c>
       <c r="H67" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I67" t="n">
-        <v>0.006458966565349544</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01278195488721805</v>
+        <v>0.01377199693955623</v>
       </c>
     </row>
     <row r="68">
@@ -3204,25 +3204,25 @@
         <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F68" t="n">
-        <v>7857</v>
+        <v>7912</v>
       </c>
       <c r="G68" t="n">
-        <v>7351</v>
+        <v>7299</v>
       </c>
       <c r="H68" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I68" t="n">
-        <v>0.00433428145740214</v>
+        <v>0.0049079754601227</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="K68" t="n">
-        <v>0.008603306896088184</v>
+        <v>0.009733675814519401</v>
       </c>
     </row>
     <row r="69">
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F69" t="n">
-        <v>11353</v>
+        <v>11456</v>
       </c>
       <c r="G69" t="n">
-        <v>10415</v>
+        <v>10317</v>
       </c>
       <c r="H69" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I69" t="n">
-        <v>0.002872187649593107</v>
+        <v>0.003284706791614337</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="K69" t="n">
-        <v>0.00571374154842396</v>
+        <v>0.006530298665130126</v>
       </c>
     </row>
     <row r="70">
@@ -3286,25 +3286,25 @@
         <v>1.3</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F70" t="n">
-        <v>14825</v>
+        <v>14993</v>
       </c>
       <c r="G70" t="n">
-        <v>13503</v>
+        <v>13337</v>
       </c>
       <c r="H70" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00206932229694775</v>
+        <v>0.002318970676241771</v>
       </c>
       <c r="J70" t="n">
         <v>0.5</v>
       </c>
       <c r="K70" t="n">
-        <v>0.004121586810922205</v>
+        <v>0.004616530156366344</v>
       </c>
     </row>
     <row r="71">
@@ -3327,25 +3327,25 @@
         <v>1.5</v>
       </c>
       <c r="E71" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F71" t="n">
-        <v>17129</v>
+        <v>17461</v>
       </c>
       <c r="G71" t="n">
-        <v>15575</v>
+        <v>15245</v>
       </c>
       <c r="H71" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00185849782107152</v>
+        <v>0.002029327048965698</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="K71" t="n">
-        <v>0.003703703703703704</v>
+        <v>0.004042248011474768</v>
       </c>
     </row>
     <row r="72">
@@ -3368,25 +3368,25 @@
         <v>1.7</v>
       </c>
       <c r="E72" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>19389</v>
+        <v>19621</v>
       </c>
       <c r="G72" t="n">
-        <v>17683</v>
+        <v>17454</v>
       </c>
       <c r="H72" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I72" t="n">
-        <v>0.001580938399864491</v>
+        <v>0.001715854495538778</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K72" t="n">
-        <v>0.003151910845950357</v>
+        <v>0.00341958281089707</v>
       </c>
     </row>
     <row r="73">
@@ -3409,25 +3409,25 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>22853</v>
+        <v>22980</v>
       </c>
       <c r="G73" t="n">
-        <v>20779</v>
+        <v>20657</v>
       </c>
       <c r="H73" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I73" t="n">
-        <v>0.00129770258579256</v>
+        <v>0.001450186107217093</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4821428571428572</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K73" t="n">
-        <v>0.002588438308886971</v>
+        <v>0.002891705624367439</v>
       </c>
     </row>
     <row r="74">
@@ -3453,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>6472</v>
+        <v>6478</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>10848</v>
+        <v>10850</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>15208</v>
+        <v>15211</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>21768</v>
+        <v>21773</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>28328</v>
+        <v>28330</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>32704</v>
+        <v>32706</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>37072</v>
+        <v>37075</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>43632</v>
+        <v>43637</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
